--- a/solvency2-rules/S2_08_01_01_02.xlsx
+++ b/solvency2-rules/S2_08_01_01_02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\30_code\python\gitlab\solvency2-rules\solvency2-rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Windows\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2883,7 +2883,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2899,9 +2899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2939,7 +2939,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3011,7 +3011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3187,13 +3187,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="I298" sqref="I298"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3251,13 +3251,13 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.98599999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>324</v>
@@ -3272,7 +3272,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3286,13 +3286,13 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.99260000000000004</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>324</v>
@@ -3307,7 +3307,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3321,13 +3321,13 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>324</v>
@@ -3342,7 +3342,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3356,13 +3356,13 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.91659999999999997</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>324</v>
@@ -3377,7 +3377,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.97940000000000005</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>324</v>
@@ -3412,7 +3412,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3426,13 +3426,13 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>324</v>
@@ -3447,7 +3447,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3461,13 +3461,13 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -3482,7 +3482,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>40156</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.99119999999999997</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>324</v>
@@ -3517,7 +3517,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3531,13 +3531,13 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>324</v>
@@ -3552,7 +3552,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3566,13 +3566,13 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>2577</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>324</v>
@@ -3587,7 +3587,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3601,13 +3601,13 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -3622,7 +3622,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3636,13 +3636,13 @@
         <v>32</v>
       </c>
       <c r="E13">
-        <v>17443</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5057</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7752</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>324</v>
@@ -3657,7 +3657,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3671,13 +3671,13 @@
         <v>33</v>
       </c>
       <c r="E14">
-        <v>2685</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1193</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.69240000000000002</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -3692,7 +3692,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3706,13 +3706,13 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>1241</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>324</v>
@@ -3727,7 +3727,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3741,13 +3741,13 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>324</v>
@@ -3762,7 +3762,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3776,13 +3776,13 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>16813</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3442</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.83009999999999995</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>324</v>
@@ -3797,7 +3797,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3811,13 +3811,13 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>324</v>
@@ -3832,7 +3832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3846,13 +3846,13 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>324</v>
@@ -3867,7 +3867,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3881,13 +3881,13 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>324</v>
@@ -3902,7 +3902,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3916,13 +3916,13 @@
         <v>40</v>
       </c>
       <c r="E21">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>324</v>
@@ -3937,7 +3937,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3951,13 +3951,13 @@
         <v>41</v>
       </c>
       <c r="E22">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>324</v>
@@ -3972,7 +3972,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3986,13 +3986,13 @@
         <v>42</v>
       </c>
       <c r="E23">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.91359999999999997</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>324</v>
@@ -4007,7 +4007,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4021,13 +4021,13 @@
         <v>43</v>
       </c>
       <c r="E24">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>324</v>
@@ -4042,7 +4042,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4056,13 +4056,13 @@
         <v>44</v>
       </c>
       <c r="E25">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>324</v>
@@ -4077,7 +4077,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4091,13 +4091,13 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <v>1601</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>324</v>
@@ -4112,7 +4112,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4126,13 +4126,13 @@
         <v>46</v>
       </c>
       <c r="E27">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.99939999999999996</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>324</v>
@@ -4147,7 +4147,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4161,13 +4161,13 @@
         <v>47</v>
       </c>
       <c r="E28">
-        <v>2176</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.99950000000000006</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>324</v>
@@ -4182,7 +4182,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4196,13 +4196,13 @@
         <v>48</v>
       </c>
       <c r="E29">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>324</v>
@@ -4217,7 +4217,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4231,13 +4231,13 @@
         <v>49</v>
       </c>
       <c r="E30">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>324</v>
@@ -4252,7 +4252,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4266,13 +4266,13 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.90139999999999998</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>324</v>
@@ -4287,7 +4287,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4301,13 +4301,13 @@
         <v>51</v>
       </c>
       <c r="E32">
-        <v>5364</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>324</v>
@@ -4322,7 +4322,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4336,13 +4336,13 @@
         <v>52</v>
       </c>
       <c r="E33">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>324</v>
@@ -4357,7 +4357,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4371,13 +4371,13 @@
         <v>53</v>
       </c>
       <c r="E34">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.66479999999999995</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>324</v>
@@ -4392,7 +4392,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4406,13 +4406,13 @@
         <v>54</v>
       </c>
       <c r="E35">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>324</v>
@@ -4427,7 +4427,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4441,13 +4441,13 @@
         <v>55</v>
       </c>
       <c r="E36">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.96489999999999998</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>324</v>
@@ -4462,7 +4462,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4476,13 +4476,13 @@
         <v>56</v>
       </c>
       <c r="E37">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.99670000000000003</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>324</v>
@@ -4497,7 +4497,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4511,13 +4511,13 @@
         <v>57</v>
       </c>
       <c r="E38">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
         <v>324</v>
@@ -4532,7 +4532,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4546,13 +4546,13 @@
         <v>58</v>
       </c>
       <c r="E39">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>324</v>
@@ -4567,7 +4567,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4581,13 +4581,13 @@
         <v>59</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
         <v>324</v>
@@ -4602,7 +4602,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4616,13 +4616,13 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>324</v>
@@ -4637,7 +4637,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4651,13 +4651,13 @@
         <v>61</v>
       </c>
       <c r="E42">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>324</v>
@@ -4672,7 +4672,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4686,13 +4686,13 @@
         <v>62</v>
       </c>
       <c r="E43">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
         <v>324</v>
@@ -4707,7 +4707,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4721,13 +4721,13 @@
         <v>63</v>
       </c>
       <c r="E44">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>324</v>
@@ -4742,7 +4742,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4756,13 +4756,13 @@
         <v>64</v>
       </c>
       <c r="E45">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
         <v>324</v>
@@ -4777,7 +4777,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4791,13 +4791,13 @@
         <v>65</v>
       </c>
       <c r="E46">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>324</v>
@@ -4812,7 +4812,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4826,13 +4826,13 @@
         <v>66</v>
       </c>
       <c r="E47">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.67769999999999997</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>324</v>
@@ -4847,7 +4847,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4861,13 +4861,13 @@
         <v>67</v>
       </c>
       <c r="E48">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>324</v>
@@ -4882,7 +4882,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4896,13 +4896,13 @@
         <v>68</v>
       </c>
       <c r="E49">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>324</v>
@@ -4917,7 +4917,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4931,13 +4931,13 @@
         <v>69</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
         <v>324</v>
@@ -4952,7 +4952,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4966,13 +4966,13 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
         <v>324</v>
@@ -4987,7 +4987,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5001,13 +5001,13 @@
         <v>71</v>
       </c>
       <c r="E52">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.99309999999999998</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>324</v>
@@ -5022,7 +5022,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5036,13 +5036,13 @@
         <v>72</v>
       </c>
       <c r="E53">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.99909999999999999</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
         <v>324</v>
@@ -5057,7 +5057,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5071,13 +5071,13 @@
         <v>73</v>
       </c>
       <c r="E54">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>324</v>
@@ -5092,7 +5092,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5106,13 +5106,13 @@
         <v>74</v>
       </c>
       <c r="E55">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.98880000000000001</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
         <v>324</v>
@@ -5127,7 +5127,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5141,13 +5141,13 @@
         <v>75</v>
       </c>
       <c r="E56">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
         <v>324</v>
@@ -5162,7 +5162,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5176,13 +5176,13 @@
         <v>76</v>
       </c>
       <c r="E57">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
         <v>324</v>
@@ -5197,7 +5197,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5211,13 +5211,13 @@
         <v>77</v>
       </c>
       <c r="E58">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>324</v>
@@ -5232,7 +5232,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5246,13 +5246,13 @@
         <v>78</v>
       </c>
       <c r="E59">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
         <v>324</v>
@@ -5267,7 +5267,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5281,13 +5281,13 @@
         <v>79</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
         <v>324</v>
@@ -5302,7 +5302,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5316,13 +5316,13 @@
         <v>80</v>
       </c>
       <c r="E61">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.93489999999999995</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
         <v>324</v>
@@ -5337,7 +5337,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5351,13 +5351,13 @@
         <v>81</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
         <v>324</v>
@@ -5372,7 +5372,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5386,13 +5386,13 @@
         <v>82</v>
       </c>
       <c r="E63">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
         <v>324</v>
@@ -5407,7 +5407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5421,13 +5421,13 @@
         <v>83</v>
       </c>
       <c r="E64">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
         <v>324</v>
@@ -5442,7 +5442,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5456,13 +5456,13 @@
         <v>84</v>
       </c>
       <c r="E65">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>324</v>
@@ -5477,7 +5477,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5491,13 +5491,13 @@
         <v>85</v>
       </c>
       <c r="E66">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
         <v>324</v>
@@ -5512,7 +5512,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5526,13 +5526,13 @@
         <v>86</v>
       </c>
       <c r="E67">
-        <v>4640</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.86499999999999999</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>324</v>
@@ -5547,7 +5547,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5561,13 +5561,13 @@
         <v>87</v>
       </c>
       <c r="E68">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.99670000000000003</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>324</v>
@@ -5582,7 +5582,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5596,13 +5596,13 @@
         <v>88</v>
       </c>
       <c r="E69">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>324</v>
@@ -5617,7 +5617,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5631,13 +5631,13 @@
         <v>89</v>
       </c>
       <c r="E70">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.99519999999999997</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
         <v>324</v>
@@ -5652,7 +5652,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5666,13 +5666,13 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
         <v>324</v>
@@ -5687,7 +5687,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5701,13 +5701,13 @@
         <v>91</v>
       </c>
       <c r="E72">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="s">
         <v>324</v>
@@ -5722,7 +5722,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5736,13 +5736,13 @@
         <v>92</v>
       </c>
       <c r="E73">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.87590000000000001</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
         <v>324</v>
@@ -5757,7 +5757,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>302</v>
       </c>
